--- a/DataBase-CP.xlsx
+++ b/DataBase-CP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -11675,8 +11675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G8" sqref="G1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12216,7 +12216,7 @@
   <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="G154" sqref="G1:XFD1048576"/>
+      <selection activeCell="A173" sqref="A173:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15675,8 +15675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1679"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1661" workbookViewId="0">
-      <selection activeCell="G1661" sqref="G1:XFD1048576"/>
+    <sheetView topLeftCell="A1661" workbookViewId="0">
+      <selection activeCell="A1680" sqref="A1680:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
